--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_4_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783271</v>
       </c>
     </row>
   </sheetData>
@@ -673,13 +673,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E2" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F2" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1204,7 +1204,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y8" t="n">
         <v>511.3174326828064</v>
@@ -1390,10 +1390,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T29" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U29" t="n">
         <v>648.751427201877</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V35" t="n">
         <v>629.8510241668239</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,55 +3684,55 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,31 +4470,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>402.2039476630057</v>
       </c>
       <c r="K4" t="n">
         <v>457.4949902104935</v>
@@ -4549,19 +4549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4576,22 +4576,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4600,25 +4600,25 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,46 +4707,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>373.1514491892473</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>390.5464437818534</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>390.5464437818534</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>390.5464437818534</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>390.5464437818534</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4758,25 +4758,25 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.6648391925338</v>
+        <v>252.3693006790323</v>
       </c>
     </row>
     <row r="8">
@@ -4807,28 +4807,28 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1841.010275303557</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4837,19 +4837,19 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
         <v>3583.51196363841</v>
@@ -4968,13 +4968,13 @@
         <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -5038,37 +5038,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.58008885974</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5187,19 +5187,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H13" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I13" t="n">
         <v>140.96</v>
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5287,19 +5287,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P14" t="n">
         <v>6474.295852434775</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5427,13 +5427,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5661,16 +5661,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5755,28 +5755,28 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>2153.765102156982</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L20" t="n">
-        <v>3071.357825473565</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M20" t="n">
-        <v>3553.537024987068</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N20" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
         <v>6931.116362236997</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5943,25 +5943,25 @@
         <v>307.8416045893196</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="23">
@@ -6004,19 +6004,19 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N23" t="n">
-        <v>4465.52036104992</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O23" t="n">
-        <v>5375.675243990664</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6192,13 +6192,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L26" t="n">
-        <v>2595.354589746543</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M26" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N26" t="n">
         <v>4728.273641396618</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6469,34 +6469,34 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T29" t="n">
         <v>6118.11576243671</v>
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6618,7 +6618,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6703,19 +6703,19 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>1339.420289043491</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L32" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M32" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
         <v>4728.273641396618</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6946,7 +6946,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
         <v>3681.051378010443</v>
@@ -6970,10 +6970,10 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
         <v>5462.811290515621</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7131,22 +7131,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010443</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O38" t="n">
         <v>5638.428524337362</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7380,10 +7380,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7420,22 +7420,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M41" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N41" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7657,16 +7657,16 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M44" t="n">
-        <v>3864.448844008177</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4429.491907880849</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
         <v>5638.428524337362</v>
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7833,19 +7833,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>835.1386633165826</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>315.9139665186112</v>
+        <v>721.547474042929</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8692,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>97.98316547195645</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>392.2657817102986</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>265.4073538855533</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>383.4716344542435</v>
       </c>
       <c r="N23" t="n">
         <v>1096.663422488788</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>265.4073538855528</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>265.4073538855534</v>
+        <v>721.547474042929</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650855</v>
+        <v>763.2599394199324</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7591690772404</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>835.1386633165826</v>
+        <v>519.4191429811533</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>746.2187031047674</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11305,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M44" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>301.7997308240087</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23278,10 +23278,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D13" t="n">
-        <v>285.5362180555555</v>
+        <v>217.7275736568375</v>
       </c>
       <c r="E13" t="n">
         <v>280.9809048369565</v>
@@ -23439,10 +23439,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E16" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F16" t="n">
         <v>274.3828559677419</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
-        <v>285.5362180555555</v>
+        <v>120.3234295121291</v>
       </c>
       <c r="E19" t="n">
         <v>280.9809048369565</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S22" t="n">
-        <v>316.45975839138</v>
+        <v>248.651113992662</v>
       </c>
       <c r="T22" t="n">
         <v>198.7676812603561</v>
@@ -24390,7 +24390,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,10 +24432,10 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X25" t="n">
-        <v>247.4436454301076</v>
+        <v>179.6350010313895</v>
       </c>
       <c r="Y25" t="n">
         <v>287.4653528494624</v>
@@ -24606,7 +24606,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>287.1138003370787</v>
+        <v>121.9010117936523</v>
       </c>
       <c r="C28" t="n">
         <v>272.7252466480447</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T29" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G31" t="n">
-        <v>77.1964941341692</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25620,7 +25620,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668115</v>
       </c>
       <c r="Y40" t="n">
         <v>287.4653528494624</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q46" t="n">
-        <v>505.228266425598</v>
+        <v>490.8301642385968</v>
       </c>
       <c r="R46" t="n">
         <v>608.1413738827905</v>
@@ -26085,10 +26085,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270377</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604742</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939107</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845995</v>
+        <v>5053973.894141731</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.915131541</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121344</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656666</v>
+        <v>8522705.957111143</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847354</v>
+        <v>9678949.978100942</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228731</v>
+        <v>11991438.02008054</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.322341942</v>
+        <v>13147682.04107034</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610109</v>
+        <v>14303926.06206015</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800799</v>
+        <v>15460170.08304997</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.311099149</v>
+        <v>16616414.10403979</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.9740182181</v>
+        <v>17772658.12502962</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.3542411316</v>
       </c>
       <c r="C2" t="n">
         <v>913048.3542411313</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.3542411313</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="F2" t="n">
         <v>817831.1367976689</v>
       </c>
       <c r="G2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="H2" t="n">
         <v>817831.1367976688</v>
       </c>
-      <c r="H2" t="n">
-        <v>817831.1367976689</v>
-      </c>
       <c r="I2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.136797669</v>
       </c>
       <c r="J2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="K2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="L2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="M2" t="n">
         <v>817831.1367976688</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>817831.1367976685</v>
+      </c>
+      <c r="O2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976688</v>
-      </c>
-      <c r="L2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="M2" t="n">
-        <v>817831.1367976686</v>
-      </c>
-      <c r="N2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="O2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976686</v>
       </c>
     </row>
     <row r="3">
@@ -26432,10 +26432,10 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="G4" t="n">
         <v>26356.19966309946</v>
@@ -26456,10 +26456,10 @@
         <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="O4" t="n">
         <v>26356.19966309947</v>
@@ -26533,10 +26533,10 @@
         <v>639094.7644093808</v>
       </c>
       <c r="D6" t="n">
-        <v>639397.125079314</v>
+        <v>639397.1250793139</v>
       </c>
       <c r="E6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="F6" t="n">
         <v>652495.5371345694</v>
@@ -26548,28 +26548,28 @@
         <v>652495.5371345694</v>
       </c>
       <c r="I6" t="n">
+        <v>652495.5371345696</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32271.53713456955</v>
+      </c>
+      <c r="K6" t="n">
+        <v>652495.5371345691</v>
+      </c>
+      <c r="L6" t="n">
+        <v>652495.5371345691</v>
+      </c>
+      <c r="M6" t="n">
         <v>652495.5371345694</v>
       </c>
-      <c r="J6" t="n">
-        <v>32271.53713456928</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>652495.5371345691</v>
+      </c>
+      <c r="O6" t="n">
+        <v>652495.5371345691</v>
+      </c>
+      <c r="P6" t="n">
         <v>652495.5371345694</v>
-      </c>
-      <c r="L6" t="n">
-        <v>652495.5371345694</v>
-      </c>
-      <c r="M6" t="n">
-        <v>652495.5371345691</v>
-      </c>
-      <c r="N6" t="n">
-        <v>652495.5371345694</v>
-      </c>
-      <c r="O6" t="n">
-        <v>652495.5371345694</v>
-      </c>
-      <c r="P6" t="n">
-        <v>652495.5371345691</v>
       </c>
     </row>
   </sheetData>
@@ -27517,13 +27517,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1138003370787</v>
+        <v>400</v>
       </c>
       <c r="C4" t="n">
         <v>272.7252466480447</v>
@@ -27690,10 +27690,10 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>38.27883631806239</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287.1138003370787</v>
+        <v>325.7441891675247</v>
       </c>
       <c r="C7" t="n">
         <v>272.7252466480447</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>304.4892065993283</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27954,7 +27954,7 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
         <v>198.7676812603561</v>
@@ -27972,7 +27972,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y7" t="n">
-        <v>287.4653528494624</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -34962,7 +34962,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>112.8861996629213</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34986,10 +34986,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>17.57070160869296</v>
+        <v>55.84953792675535</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35199,7 +35199,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.63038883044603</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>36.43098678260856</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35250,7 +35250,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -35268,7 +35268,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>112.5346471505376</v>
       </c>
     </row>
     <row r="8">
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L8" t="n">
-        <v>1242.775303202028</v>
+        <v>1648.408810726346</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35323,7 +35323,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35460,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35536,25 +35536,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1242.775303202028</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>668.7337350403122</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
@@ -35563,7 +35563,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1410.84121030703</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1139.38006814246</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>752.457050363839</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36496,7 +36496,7 @@
         <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>870.5213309325291</v>
       </c>
       <c r="N23" t="n">
         <v>1667.413992057144</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1109.717786307183</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,22 +36721,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L26" t="n">
-        <v>1192.268690568971</v>
+        <v>1648.408810726346</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
@@ -36961,13 +36961,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948503</v>
+        <v>1690.12127610335</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36985,7 +36985,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,22 +37195,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834174</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M32" t="n">
-        <v>828.808865555526</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37675,10 +37675,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1762</v>
+        <v>1446.280479664571</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,7 +37687,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
@@ -37912,16 +37912,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>1316.969272673123</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
@@ -37930,7 +37930,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38149,19 +38149,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M44" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>1221.148097430821</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
